--- a/Doc/Template1_Project_Tracking.xlsx
+++ b/Doc/Template1_Project_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A424D03D-6F7F-4EE5-AC17-B5D4CF8A2AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD7A40A-E76F-4952-8B0A-7C7D7A66C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" ref="A6:A19" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1640,7 +1640,7 @@
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1668,7 +1668,7 @@
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1696,7 +1696,7 @@
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1724,7 +1724,7 @@
     </row>
     <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1752,7 +1752,7 @@
     </row>
     <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1836,7 +1836,7 @@
     </row>
     <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1892,7 +1892,7 @@
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1948,7 +1948,7 @@
     </row>
     <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">

--- a/Doc/Template1_Project_Tracking.xlsx
+++ b/Doc/Template1_Project_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD7A40A-E76F-4952-8B0A-7C7D7A66C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86797A14-23AC-4C26-A971-9F25C2E16A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -573,27 +573,15 @@
     <t>Manage Admin</t>
   </si>
   <si>
-    <t>Customer Profile Update</t>
-  </si>
-  <si>
     <t xml:space="preserve">Order History </t>
   </si>
   <si>
-    <t>Create Product</t>
-  </si>
-  <si>
     <t>Admin DashBoard</t>
   </si>
   <si>
     <t>List Product</t>
   </si>
   <si>
-    <t>List Account</t>
-  </si>
-  <si>
-    <t>Create Employee</t>
-  </si>
-  <si>
     <t>Update Product</t>
   </si>
   <si>
@@ -604,6 +592,54 @@
   </si>
   <si>
     <t>Manage Comment</t>
+  </si>
+  <si>
+    <t>Describes information based on the account the user is logged in with.</t>
+  </si>
+  <si>
+    <t>When you log in with an admin account, you can manage lower roles. For example: Product CRUD, Employee Management, …</t>
+  </si>
+  <si>
+    <t>When logged in with the employee account, lower roles can be managed. For example: order management, …</t>
+  </si>
+  <si>
+    <t>Account Profile Update</t>
+  </si>
+  <si>
+    <t>Show ordered of customers.</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>CRUD product by Admin's Account.</t>
+  </si>
+  <si>
+    <t>Show the statistic of all orders</t>
+  </si>
+  <si>
+    <t>In E19Charge</t>
+  </si>
+  <si>
+    <t>Show All Product.</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Show all account in the system. Admin can CRUD account</t>
+  </si>
+  <si>
+    <t>CRU employee by admin</t>
+  </si>
+  <si>
+    <t>UR orders of customers</t>
+  </si>
+  <si>
+    <t>Show history of product changed</t>
+  </si>
+  <si>
+    <t>UR comment of customers</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1291,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
@@ -1594,23 +1630,17 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1622,23 +1652,17 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1650,20 +1674,14 @@
         <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -1672,138 +1690,108 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -1812,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1820,18 +1808,12 @@
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -1840,138 +1822,108 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="4"/>
     </row>
   </sheetData>

--- a/Doc/Template1_Project_Tracking.xlsx
+++ b/Doc/Template1_Project_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86797A14-23AC-4C26-A971-9F25C2E16A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE41A4-641A-402B-A2C9-D06E48BF7BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Show the statistic of all orders</t>
   </si>
   <si>
-    <t>In E19Charge</t>
-  </si>
-  <si>
     <t>Show All Product.</t>
   </si>
   <si>
@@ -640,6 +637,18 @@
   </si>
   <si>
     <t>UR comment of customers</t>
+  </si>
+  <si>
+    <t>A hiếu</t>
+  </si>
+  <si>
+    <t>Update infor of account.</t>
+  </si>
+  <si>
+    <t>Update product</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1558,9 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1569,7 @@
     <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="6" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
@@ -1603,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
@@ -1632,7 +1641,9 @@
       <c r="D6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1687,9 @@
       <c r="D8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1684,7 +1697,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1696,9 +1709,11 @@
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +1779,9 @@
       <c r="D12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
@@ -1794,7 +1811,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1806,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
@@ -1822,13 +1839,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
@@ -1850,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
@@ -1872,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="4" t="s">
@@ -1894,9 +1911,11 @@
         <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1916,9 +1935,11 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
